--- a/data/trans_orig/P14A21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7429237-CBF7-48E8-8988-C8C5299D7B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED00B73-CA51-4BD4-9A86-D935D9C24A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9F597F7D-1807-48FD-916F-7D29CDFDF3E8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C2DB27E-0106-48EB-ABA1-DF48A126A44E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="231">
   <si>
     <t>Población que recibe medicación o terapia por migrañas en 2012 (Tasa respuesta: 3,32%)</t>
   </si>
@@ -84,13 +84,13 @@
     <t>80,67%</t>
   </si>
   <si>
-    <t>46,95%</t>
+    <t>45,81%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>59,46%</t>
+    <t>61,09%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>19,33%</t>
   </si>
   <si>
-    <t>53,05%</t>
+    <t>54,19%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>40,54%</t>
+    <t>38,91%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -132,19 +132,19 @@
     <t>85,75%</t>
   </si>
   <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>36,17%</t>
@@ -159,19 +159,19 @@
     <t>14,25%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>37,43%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -183,16 +183,16 @@
     <t>90,25%</t>
   </si>
   <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>82,38%</t>
+    <t>83,9%</t>
   </si>
   <si>
     <t>96,87%</t>
@@ -204,10 +204,10 @@
     <t>9,75%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>7,98%</t>
@@ -216,7 +216,7 @@
     <t>3,13%</t>
   </si>
   <si>
-    <t>17,62%</t>
+    <t>16,1%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -228,19 +228,19 @@
     <t>88,8%</t>
   </si>
   <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>69,39%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
   </si>
   <si>
     <t>90,27%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -249,19 +249,19 @@
     <t>11,2%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
   </si>
   <si>
     <t>9,73%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -273,13 +273,13 @@
     <t>90,06%</t>
   </si>
   <si>
-    <t>69,02%</t>
+    <t>68,85%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>62,17%</t>
   </si>
   <si>
     <t>95,73%</t>
@@ -291,7 +291,7 @@
     <t>9,94%</t>
   </si>
   <si>
-    <t>30,98%</t>
+    <t>31,15%</t>
   </si>
   <si>
     <t>16,71%</t>
@@ -300,7 +300,7 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>33,91%</t>
+    <t>37,83%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -309,103 +309,103 @@
     <t>81,11%</t>
   </si>
   <si>
-    <t>21,07%</t>
+    <t>19,64%</t>
   </si>
   <si>
     <t>86,57%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
   </si>
   <si>
     <t>18,89%</t>
   </si>
   <si>
-    <t>78,93%</t>
+    <t>80,36%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>87,4%</t>
   </si>
   <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -420,19 +420,19 @@
     <t>65,83%</t>
   </si>
   <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>60,38%</t>
   </si>
   <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>51,6%</t>
@@ -441,19 +441,19 @@
     <t>34,17%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
   </si>
   <si>
     <t>39,62%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
   <si>
     <t>24,65%</t>
@@ -462,19 +462,19 @@
     <t>74,54%</t>
   </si>
   <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
   </si>
   <si>
     <t>69,44%</t>
   </si>
   <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>75,35%</t>
@@ -483,19 +483,19 @@
     <t>25,46%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
   </si>
   <si>
     <t>30,56%</t>
   </si>
   <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
   </si>
   <si>
     <t>47,82%</t>
@@ -510,16 +510,16 @@
     <t>94,38%</t>
   </si>
   <si>
-    <t>74,16%</t>
+    <t>74,46%</t>
   </si>
   <si>
     <t>81,71%</t>
   </si>
   <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
   </si>
   <si>
     <t>52,18%</t>
@@ -534,118 +534,118 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>25,84%</t>
+    <t>25,54%</t>
   </si>
   <si>
     <t>18,29%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>51,99%</t>
+    <t>44,22%</t>
   </si>
   <si>
     <t>73,63%</t>
   </si>
   <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>75,48%</t>
   </si>
   <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>48,01%</t>
+    <t>55,78%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
   </si>
   <si>
     <t>24,52%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
   </si>
   <si>
     <t>68,71%</t>
   </si>
   <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>84,58%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
   </si>
   <si>
     <t>15,42%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -654,19 +654,16 @@
     <t>94,93%</t>
   </si>
   <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>88,48%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -675,73 +672,64 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>69,39%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
   </si>
   <si>
     <t>84,02%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>81,13%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>30,61%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>15,98%</t>
   </si>
   <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1A06618-AD31-44C5-8D8E-401D14D67B50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5046611-47B2-4B8A-81F8-49ED33CBE4FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2372,7 +2360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E83F26-4F4D-48FF-9987-B727282B8618}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC0DE5-53EC-400E-8042-A5031F2F6EB4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3307,7 +3295,7 @@
         <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>209</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3337,13 +3325,13 @@
         <v>2986</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3352,13 +3340,13 @@
         <v>2986</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3414,13 @@
         <v>33222</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -3441,13 +3429,13 @@
         <v>163590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>181</v>
@@ -3456,13 +3444,13 @@
         <v>196811</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3465,13 @@
         <v>14653</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>226</v>
+        <v>71</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3492,13 +3480,13 @@
         <v>31109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -3507,13 +3495,13 @@
         <v>45763</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A21-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CED00B73-CA51-4BD4-9A86-D935D9C24A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F97BD1-9F89-424B-B464-6A93B30CBF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C2DB27E-0106-48EB-ABA1-DF48A126A44E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A53656E1-BBD1-4C76-BF62-3E1FF6DF4B50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,13 +84,13 @@
     <t>80,67%</t>
   </si>
   <si>
-    <t>45,81%</t>
+    <t>45,52%</t>
   </si>
   <si>
     <t>86,97%</t>
   </si>
   <si>
-    <t>61,09%</t>
+    <t>58,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,13 +108,13 @@
     <t>19,33%</t>
   </si>
   <si>
-    <t>54,19%</t>
+    <t>54,48%</t>
   </si>
   <si>
     <t>13,03%</t>
   </si>
   <si>
-    <t>38,91%</t>
+    <t>41,51%</t>
   </si>
   <si>
     <t>25/34</t>
@@ -123,55 +123,55 @@
     <t>63,83%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
   </si>
   <si>
     <t>80,18%</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>36,17%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>37,43%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -183,19 +183,19 @@
     <t>90,25%</t>
   </si>
   <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -204,19 +204,19 @@
     <t>9,75%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -228,508 +228,508 @@
     <t>88,8%</t>
   </si>
   <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por migrañas en 2016 (Tasa respuesta: 3,41%)</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
     <t>69,39%</t>
   </si>
   <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
   </si>
   <si>
     <t>30,61%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por migrañas en 2015 (Tasa respuesta: 3,41%)</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
   </si>
   <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5046611-47B2-4B8A-81F8-49ED33CBE4FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63CE3F3-83A6-4C7D-ACE9-6419C001FB3B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2073,10 +2073,10 @@
         <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,13 +2091,13 @@
         <v>1000</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2106,13 +2106,13 @@
         <v>6282</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -2121,13 +2121,13 @@
         <v>7282</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2195,13 @@
         <v>34445</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H22" s="7">
         <v>156</v>
@@ -2210,13 +2210,13 @@
         <v>166636</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>189</v>
@@ -2225,13 +2225,13 @@
         <v>201082</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2246,13 @@
         <v>5875</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -2261,13 +2261,13 @@
         <v>23121</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -2276,13 +2276,13 @@
         <v>28995</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,7 +2338,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2360,7 +2360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FC0DE5-53EC-400E-8042-A5031F2F6EB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6AE9A2-806F-4F0A-AE3B-346E16DACA57}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2377,7 +2377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2484,7 +2484,7 @@
         <v>1898</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>19</v>
@@ -2499,13 +2499,13 @@
         <v>5675</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -2514,13 +2514,13 @@
         <v>7573</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,7 +2535,7 @@
         <v>2024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
@@ -2550,13 +2550,13 @@
         <v>2946</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -2565,13 +2565,13 @@
         <v>4970</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2639,7 @@
         <v>1047</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>19</v>
@@ -2654,13 +2654,13 @@
         <v>27812</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -2669,13 +2669,13 @@
         <v>28858</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2690,7 @@
         <v>3199</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>19</v>
@@ -2705,13 +2705,13 @@
         <v>9499</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2720,13 +2720,13 @@
         <v>12699</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2794,13 @@
         <v>3606</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2809,10 +2809,10 @@
         <v>19045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
@@ -2824,13 +2824,13 @@
         <v>22651</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2845,13 @@
         <v>3934</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2860,13 +2860,13 @@
         <v>1134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2875,13 +2875,13 @@
         <v>5069</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,10 +2949,10 @@
         <v>9183</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -2964,13 +2964,13 @@
         <v>25528</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -2979,13 +2979,13 @@
         <v>34711</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>2129</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -3015,13 +3015,13 @@
         <v>9144</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -3030,13 +3030,13 @@
         <v>11273</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,13 +3104,13 @@
         <v>7390</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3119,13 +3119,13 @@
         <v>29633</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -3134,13 +3134,13 @@
         <v>37023</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>3366</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -3170,13 +3170,13 @@
         <v>5400</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -3185,13 +3185,13 @@
         <v>8766</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3262,7 +3262,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3274,13 +3274,13 @@
         <v>55896</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>59</v>
@@ -3289,13 +3289,13 @@
         <v>65995</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3325,13 +3325,13 @@
         <v>2986</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3340,10 +3340,10 @@
         <v>2986</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>214</v>
@@ -3414,13 +3414,13 @@
         <v>33222</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>149</v>
@@ -3429,7 +3429,7 @@
         <v>163590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>218</v>
@@ -3465,13 +3465,13 @@
         <v>14653</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
         <v>29</v>
@@ -3480,7 +3480,7 @@
         <v>31109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>225</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>226</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
